--- a/global_data/day_data/002913.xlsx
+++ b/global_data/day_data/002913.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1797"/>
+  <dimension ref="A1:I1799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -52521,6 +52523,64 @@
         <v>0.01638620443648432</v>
       </c>
     </row>
+    <row r="1798" spans="1:9">
+      <c r="A1798" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1798">
+        <v>23.9</v>
+      </c>
+      <c r="C1798">
+        <v>24.3</v>
+      </c>
+      <c r="D1798">
+        <v>23.86</v>
+      </c>
+      <c r="E1798">
+        <v>24.03</v>
+      </c>
+      <c r="F1798">
+        <v>3442820</v>
+      </c>
+      <c r="G1798">
+        <v>82935068</v>
+      </c>
+      <c r="H1798">
+        <v>265268874</v>
+      </c>
+      <c r="I1798">
+        <v>0.01297860524714257</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:9">
+      <c r="A1799" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1799">
+        <v>24.1</v>
+      </c>
+      <c r="C1799">
+        <v>25.45</v>
+      </c>
+      <c r="D1799">
+        <v>24</v>
+      </c>
+      <c r="E1799">
+        <v>24.84</v>
+      </c>
+      <c r="F1799">
+        <v>6556590</v>
+      </c>
+      <c r="G1799">
+        <v>162820565</v>
+      </c>
+      <c r="H1799">
+        <v>265268874</v>
+      </c>
+      <c r="I1799">
+        <v>0.02471677095443923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
